--- a/vegetables.xlsx
+++ b/vegetables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50e45b0654817602/Dokumenty/nauka_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_AD4D80C4656A4B7AC02E748B73DB79B45ADEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D03384D-AD54-4CF0-890A-E92ADDB0F7AF}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_AD4D80C4656A4B7AC02E748B73DB79B45ADEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56BA7F7C-E45A-47FD-B875-F0E6F17B8E25}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>ITEM</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Green cabbage</t>
+  </si>
+  <si>
+    <t>Tomato</t>
   </si>
 </sst>
 </file>
@@ -104,6 +107,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,18 +376,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,7 +395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -396,7 +403,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -404,7 +411,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -412,7 +419,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -420,7 +427,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -428,7 +435,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -436,7 +443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -444,12 +451,20 @@
         <v>335</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
